--- a/hasil/quotation.xlsx
+++ b/hasil/quotation.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'sheet1'!$A$1:$M$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'sheet1'!$A$1:$M$52</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>QUOTATION</t>
   </si>
@@ -55,7 +55,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>29 Jul 2020</t>
+    <t>06 Sep 2021</t>
   </si>
   <si>
     <t>REF</t>
@@ -79,61 +79,16 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>barang 1</t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>barang 3</t>
+    <t>papan</t>
+  </si>
+  <si>
+    <t>Buah</t>
+  </si>
+  <si>
+    <t>pliwood</t>
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>barang 4</t>
-  </si>
-  <si>
-    <t>barang 5</t>
-  </si>
-  <si>
-    <t>barang 6</t>
-  </si>
-  <si>
-    <t>barang 7</t>
-  </si>
-  <si>
-    <t>barang 8</t>
-  </si>
-  <si>
-    <t>barang 9</t>
-  </si>
-  <si>
-    <t>barang 10</t>
-  </si>
-  <si>
-    <t>barang 31</t>
-  </si>
-  <si>
-    <t>barang 41</t>
-  </si>
-  <si>
-    <t>barang 51</t>
-  </si>
-  <si>
-    <t>barang 61</t>
-  </si>
-  <si>
-    <t>barang 71</t>
-  </si>
-  <si>
-    <t>barang 81</t>
-  </si>
-  <si>
-    <t>barang 91</t>
-  </si>
-  <si>
-    <t>barang 101</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -644,7 +599,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5800725" cy="228600"/>
@@ -674,7 +629,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1162050" cy="676275"/>
@@ -993,7 +948,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I31" sqref="I31"/>
@@ -1197,17 +1152,17 @@
       <c r="G14" s="53"/>
       <c r="H14" s="54"/>
       <c r="I14" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="41">
-        <v>15000</v>
+        <v>10000000</v>
       </c>
       <c r="L14" s="41"/>
       <c r="M14" s="18">
-        <v>150000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="15.75">
@@ -1224,440 +1179,274 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="41">
-        <v>3000</v>
+        <v>200000</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="18">
-        <v>9000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="17.25" s="4" customFormat="1">
-      <c r="A16" s="27">
-        <v>3</v>
-      </c>
+      <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="54" t="s">
-        <v>24</v>
-      </c>
+      <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="41">
-        <v>13000</v>
-      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="41"/>
-      <c r="M16" s="18">
-        <v>13000</v>
-      </c>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="18">
-      <c r="A17" s="24">
-        <v>4</v>
-      </c>
+      <c r="A17" s="24"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
-      <c r="E17" s="40" t="s">
-        <v>25</v>
-      </c>
+      <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="19">
-        <v>3</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="41">
-        <v>3000</v>
-      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="41"/>
-      <c r="M17" s="18">
-        <v>9000</v>
-      </c>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A18" s="27">
-        <v>5</v>
-      </c>
+      <c r="A18" s="27"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="40" t="s">
-        <v>26</v>
-      </c>
+      <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="17">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="33">
-        <v>13000</v>
-      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="33"/>
-      <c r="M18" s="18">
-        <v>13000</v>
-      </c>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A19" s="24">
-        <v>6</v>
-      </c>
+      <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
-      <c r="E19" s="40" t="s">
-        <v>27</v>
-      </c>
+      <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="17">
-        <v>3</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="33">
-        <v>3000</v>
-      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="33"/>
-      <c r="M19" s="18">
-        <v>9000</v>
-      </c>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A20" s="27">
-        <v>7</v>
-      </c>
+      <c r="A20" s="27"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="40" t="s">
-        <v>28</v>
-      </c>
+      <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="33">
-        <v>13000</v>
-      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="18">
-        <v>13000</v>
-      </c>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A21" s="24">
-        <v>8</v>
-      </c>
+      <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="17">
-        <v>3</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="33">
-        <v>3000</v>
-      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="33"/>
-      <c r="M21" s="18">
-        <v>9000</v>
-      </c>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A22" s="27">
-        <v>9</v>
-      </c>
+      <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="34" t="s">
-        <v>30</v>
-      </c>
+      <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="33">
-        <v>13000</v>
-      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="18">
-        <v>13000</v>
-      </c>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A23" s="24">
-        <v>10</v>
-      </c>
+      <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="34" t="s">
-        <v>31</v>
-      </c>
+      <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="17">
-        <v>3</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="33">
-        <v>3000</v>
-      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="33"/>
-      <c r="M23" s="18">
-        <v>9000</v>
-      </c>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A24" s="27">
-        <v>11</v>
-      </c>
+      <c r="A24" s="27"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
-      <c r="I24" s="17">
-        <v>1</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="33">
-        <v>13000</v>
-      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="33"/>
-      <c r="M24" s="18">
-        <v>13000</v>
-      </c>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A25" s="24">
-        <v>12</v>
-      </c>
+      <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="32" t="s">
-        <v>33</v>
-      </c>
+      <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
-      <c r="I25" s="20">
-        <v>3</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="33">
-        <v>3000</v>
-      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="33"/>
-      <c r="M25" s="18">
-        <v>9000</v>
-      </c>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A26" s="27">
-        <v>13</v>
-      </c>
+      <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="20">
-        <v>1</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="33">
-        <v>13000</v>
-      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="18">
-        <v>13000</v>
-      </c>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="15">
-      <c r="A27" s="24">
-        <v>14</v>
-      </c>
+      <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
-      <c r="E27" s="32" t="s">
-        <v>35</v>
-      </c>
+      <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="20">
-        <v>3</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="33">
-        <v>3000</v>
-      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="33"/>
-      <c r="M27" s="18">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" customHeight="1" ht="15">
-      <c r="A28" s="24">
-        <v>15</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="32" t="s">
-        <v>36</v>
-      </c>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
-      <c r="I28" s="20">
-        <v>1</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="33">
-        <v>13000</v>
-      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="18">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" customHeight="1" ht="15">
-      <c r="A29" s="24">
-        <v>16</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="20">
-        <v>3</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="33">
-        <v>3000</v>
-      </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="18">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" customHeight="1" ht="15">
-      <c r="A30" s="24">
-        <v>17</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="33">
-        <v>13000</v>
-      </c>
-      <c r="L30" s="33"/>
-      <c r="M30" s="18">
-        <v>13000</v>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="3" t="str">
+        <f>SUM(M14:M28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="3" t="str">
+        <f>M29*10/100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1667,82 +1456,70 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="30" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="31"/>
-      <c r="M32" s="3" t="str">
-        <f>SUM(M14:M31)</f>
+      <c r="M32" s="55" t="str">
+        <f>M29+M30-M31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="3" t="str">
-        <f>M32*10/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="3">
-        <v>20000</v>
-      </c>
+    <row r="33" spans="1:14">
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+    </row>
+    <row r="34" spans="1:14" customHeight="1" ht="21">
+      <c r="A34" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="55" t="str">
-        <f>M32+M33-34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-    </row>
-    <row r="37" spans="1:14" customHeight="1" ht="21">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+    </row>
+    <row r="36" spans="1:14" customHeight="1" ht="18.75">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+    </row>
+    <row r="37" spans="1:14" customHeight="1" ht="21.75">
       <c r="A37" s="38" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -1757,56 +1534,60 @@
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-    </row>
-    <row r="39" spans="1:14" customHeight="1" ht="18.75">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-    </row>
-    <row r="40" spans="1:14" customHeight="1" ht="21.75">
-      <c r="A40" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
+    <row r="38" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A38" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A39" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A40" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="12.75">
       <c r="A41" s="36" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -1823,7 +1604,7 @@
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="12.75">
       <c r="A42" s="36" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -1838,10 +1619,8 @@
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
     </row>
-    <row r="43" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A43" s="36" t="s">
-        <v>47</v>
-      </c>
+    <row r="43" spans="1:14" customHeight="1" ht="7.5">
+      <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
@@ -1857,7 +1636,7 @@
     </row>
     <row r="44" spans="1:14" customHeight="1" ht="12.75">
       <c r="A44" s="36" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -1874,7 +1653,7 @@
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="12.75">
       <c r="A45" s="36" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -1889,102 +1668,53 @@
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
     </row>
-    <row r="46" spans="1:14" customHeight="1" ht="7.5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-    </row>
-    <row r="47" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A47" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-    </row>
-    <row r="48" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A48" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49"/>
-    </row>
-    <row r="52" spans="1:14" customHeight="1" ht="8.25"/>
-    <row r="53" spans="1:14">
-      <c r="A53" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" customHeight="1" ht="9">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" customHeight="1" ht="9"/>
-    <row r="56" spans="1:14" customHeight="1" ht="13.5"/>
-    <row r="57" spans="1:14" customHeight="1" ht="7.5"/>
-    <row r="58" spans="1:14" customHeight="1" ht="5.25"/>
+    <row r="46" spans="1:14">
+      <c r="A46"/>
+    </row>
+    <row r="49" spans="1:14" customHeight="1" ht="8.25"/>
+    <row r="50" spans="1:14">
+      <c r="A50" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" customHeight="1" ht="9">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" customHeight="1" ht="9"/>
+    <row r="53" spans="1:14" customHeight="1" ht="13.5"/>
+    <row r="54" spans="1:14" customHeight="1" ht="7.5"/>
+    <row r="55" spans="1:14" customHeight="1" ht="5.25"/>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="A4:H5"/>
@@ -2012,7 +1742,7 @@
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A35:M35"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="E25:H25"/>
@@ -2021,34 +1751,34 @@
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A50:M50"/>
     <mergeCell ref="A37:M37"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A39:M39"/>
     <mergeCell ref="A40:M40"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A45:M45"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A36:M36"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="A23:D23"/>
@@ -2057,12 +1787,6 @@
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="K30:L30"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.70866141732284" right="0.70866141732284" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>

--- a/hasil/quotation.xlsx
+++ b/hasil/quotation.xlsx
@@ -10,22 +10,22 @@
     <sheet name="sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'sheet1'!$A$1:$M$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'sheet1'!$A$1:$M$51</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>QUOTATION</t>
   </si>
   <si>
-    <t>No: 2</t>
-  </si>
-  <si>
-    <t>TO</t>
+    <t>No. 9/QUO/2021</t>
+  </si>
+  <si>
+    <t>To</t>
   </si>
   <si>
     <t>:</t>
@@ -37,10 +37,10 @@
     <t xml:space="preserve">FROM </t>
   </si>
   <si>
-    <t>CV. GLOBAL POWER</t>
-  </si>
-  <si>
-    <t>SITE</t>
+    <t>Muhammad Abidin</t>
+  </si>
+  <si>
+    <t>Site</t>
   </si>
   <si>
     <t>Samburakat</t>
@@ -49,16 +49,25 @@
     <t>PHONE</t>
   </si>
   <si>
-    <t>ATTENTION</t>
+    <t>085387878998</t>
+  </si>
+  <si>
+    <t>PO No.</t>
+  </si>
+  <si>
+    <t>po123</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>06 Sep 2021</t>
-  </si>
-  <si>
-    <t>REF</t>
+    <t>08 Sep 2021</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Term</t>
   </si>
   <si>
     <t>ITEM</t>
@@ -79,16 +88,10 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>papan</t>
-  </si>
-  <si>
-    <t>Buah</t>
-  </si>
-  <si>
-    <t>pliwood</t>
-  </si>
-  <si>
-    <t>Unit</t>
+    <t>fasd</t>
+  </si>
+  <si>
+    <t>Hole</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -103,34 +106,16 @@
     <t>GRAND TOTAL</t>
   </si>
   <si>
-    <t>Specification :</t>
-  </si>
-  <si>
-    <t>Term &amp; Condition :</t>
-  </si>
-  <si>
-    <t>* Delivery Time : 14 office days</t>
-  </si>
-  <si>
-    <t>* Please reconfirm before order if any changes on quantity/Specification/Design differ from above</t>
-  </si>
-  <si>
-    <t>* The above prices can be changed if there were significant increased on material</t>
-  </si>
-  <si>
-    <t>* Payment : 30 Days ARI ( After Received Invoice )</t>
-  </si>
-  <si>
-    <t>* The above rates exclude VAT 10%</t>
-  </si>
-  <si>
-    <t>We hope you will find our offer acceptable and we look forward to your favorable response.</t>
-  </si>
-  <si>
-    <t>Thank You,</t>
-  </si>
-  <si>
-    <t>Yours Sincerely,</t>
+    <t>Pembayaran Transfer Ke Rek.</t>
+  </si>
+  <si>
+    <t>Berau,</t>
+  </si>
+  <si>
+    <t>BCA 8605172179 a/n M. Abidin</t>
+  </si>
+  <si>
+    <t>Direktur</t>
   </si>
 </sst>
 </file>
@@ -140,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -187,6 +172,24 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -199,8 +202,8 @@
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
-      <u val="none"/>
-      <sz val="24"/>
+      <u val="single"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -225,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border/>
     <border>
       <left style="thin">
@@ -328,6 +331,16 @@
       </bottom>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -367,11 +380,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
     </border>
     <border>
       <right style="medium">
@@ -385,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -449,22 +457,52 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="22" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -473,13 +511,16 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -491,16 +532,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -515,7 +553,7 @@
     <xf xfId="0" fontId="0" numFmtId="22" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -524,23 +562,23 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="18" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -551,7 +589,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -567,15 +605,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2647950" cy="828675"/>
+    <xdr:ext cx="895350" cy="638175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="1" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -597,51 +635,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5800725" cy="228600"/>
+    <xdr:ext cx="2571750" cy="466725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1162050" cy="676275"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -948,10 +956,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,55 +980,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1"/>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" customHeight="1" ht="12">
-      <c r="A4" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="18">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="17.25">
-      <c r="A6" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="5.25"/>
     <row r="8" spans="1:14">
       <c r="A8" s="10"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
@@ -1043,11 +1082,11 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="13"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
@@ -1063,349 +1102,340 @@
       <c r="K9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
+      <c r="L9" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="13"/>
-      <c r="B10" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="B10" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="L10" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="13"/>
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:14" customHeight="1" ht="10.5"/>
-    <row r="13" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="1" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
+    </row>
+    <row r="13" spans="1:14" customHeight="1" ht="10.5"/>
+    <row r="14" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="47" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="2" t="s">
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A14" s="24">
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="57"/>
+      <c r="M14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A15" s="34">
         <v>1</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="16">
-        <v>1</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="41">
-        <v>10000000</v>
-      </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="18">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A15" s="24">
-        <v>2</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="19">
-        <v>15</v>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="16">
+        <v>12.3</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="41">
-        <v>200000</v>
-      </c>
-      <c r="L15" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="K15" s="51">
+        <v>235</v>
+      </c>
+      <c r="L15" s="51"/>
       <c r="M15" s="18">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="17.25" s="4" customFormat="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+        <v>2890.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="19"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:14" customHeight="1" ht="18">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+    <row r="17" spans="1:14" customHeight="1" ht="17.25" s="4" customFormat="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="19"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="17"/>
+    <row r="18" spans="1:14" customHeight="1" ht="18">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:14" customHeight="1" ht="15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+    <row r="27" spans="1:14" customHeight="1" ht="15.75">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
+    <row r="28" spans="1:14" customHeight="1" ht="15">
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="3" t="str">
-        <f>SUM(M14:M28)</f>
-        <v>0</v>
-      </c>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:14" customHeight="1" ht="15.75">
       <c r="A30" s="7"/>
@@ -1416,14 +1446,14 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="3" t="str">
-        <f>M29*10/100</f>
+        <f>SUM(M15:M29)</f>
         <v>0</v>
       </c>
     </row>
@@ -1436,17 +1466,18 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="3" t="str">
+        <f>M30*10/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" customHeight="1" ht="15.75">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1455,338 +1486,348 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="55" t="str">
-        <f>M29+M30-M31</f>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-    </row>
-    <row r="34" spans="1:14" customHeight="1" ht="21">
-      <c r="A34" s="38" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-    </row>
-    <row r="36" spans="1:14" customHeight="1" ht="18.75">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-    </row>
-    <row r="37" spans="1:14" customHeight="1" ht="21.75">
-      <c r="A37" s="38" t="s">
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="24" t="str">
+        <f>M30+M31-M32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+    </row>
+    <row r="35" spans="1:14" customHeight="1" ht="21">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+    </row>
+    <row r="37" spans="1:14" customHeight="1" ht="18.75">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+    </row>
+    <row r="38" spans="1:14" customHeight="1" ht="21.75">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+    </row>
+    <row r="39" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+    </row>
+    <row r="40" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+    </row>
+    <row r="41" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+    </row>
+    <row r="42" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+    </row>
+    <row r="43" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+    </row>
+    <row r="44" spans="1:14" customHeight="1" ht="7.5">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A45" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-    </row>
-    <row r="38" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A38" s="36" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-    </row>
-    <row r="39" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A39" s="36" t="s">
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" customHeight="1" ht="12.75">
+      <c r="A46" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-    </row>
-    <row r="40" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A40" s="36" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="L49" s="65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" customHeight="1" ht="14.25">
+      <c r="L50" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-    </row>
-    <row r="41" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A41" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-    </row>
-    <row r="42" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A42" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-    </row>
-    <row r="43" spans="1:14" customHeight="1" ht="7.5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-    </row>
-    <row r="44" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A44" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-    </row>
-    <row r="45" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A45" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46"/>
-    </row>
-    <row r="49" spans="1:14" customHeight="1" ht="8.25"/>
-    <row r="50" spans="1:14">
-      <c r="A50" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" customHeight="1" ht="9">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" customHeight="1" ht="9"/>
-    <row r="53" spans="1:14" customHeight="1" ht="13.5"/>
-    <row r="54" spans="1:14" customHeight="1" ht="7.5"/>
-    <row r="55" spans="1:14" customHeight="1" ht="5.25"/>
+    <row r="52" spans="1:14" customHeight="1" ht="9">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" customHeight="1" ht="9"/>
+    <row r="54" spans="1:14" customHeight="1" ht="13.5"/>
+    <row r="55" spans="1:14" customHeight="1" ht="7.5"/>
+    <row r="56" spans="1:14" customHeight="1" ht="5.25"/>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="E14:H14"/>
     <mergeCell ref="A4:H5"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="K16:L16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A36:M36"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="K25:L25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="I30:L30"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="I32:L32"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="A35:M35"/>
     <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A51:M51"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A39:M39"/>
     <mergeCell ref="A40:M40"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:H2"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.70866141732284" right="0.70866141732284" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>

--- a/hasil/quotation.xlsx
+++ b/hasil/quotation.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>QUOTATION</t>
   </si>
   <si>
-    <t>No. 9/QUO/2021</t>
+    <t>No. 33/QUO/2021</t>
   </si>
   <si>
     <t>To</t>
@@ -31,7 +31,7 @@
     <t>:</t>
   </si>
   <si>
-    <t>PT.  Buma</t>
+    <t>PT Bintang Adhi Rajasa</t>
   </si>
   <si>
     <t xml:space="preserve">FROM </t>
@@ -43,7 +43,7 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Samburakat</t>
+    <t>Segah</t>
   </si>
   <si>
     <t>PHONE</t>
@@ -55,13 +55,10 @@
     <t>PO No.</t>
   </si>
   <si>
-    <t>po123</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08 Sep 2021</t>
+    <t>29 Sep 2021</t>
   </si>
   <si>
     <t>Attention</t>
@@ -88,10 +85,10 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>fasd</t>
-  </si>
-  <si>
-    <t>Hole</t>
+    <t>Tabung Oxigen Bp Edin</t>
+  </si>
+  <si>
+    <t>Botol</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1119,25 +1116,23 @@
       <c r="G10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="13"/>
       <c r="B11" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -1156,7 +1151,7 @@
     <row r="12" spans="1:14" customHeight="1" ht="15.75">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1175,29 +1170,29 @@
     <row r="13" spans="1:14" customHeight="1" ht="10.5"/>
     <row r="14" spans="1:14" customHeight="1" ht="15.75">
       <c r="A14" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
       <c r="E14" s="57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
       <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="57" t="s">
         <v>20</v>
-      </c>
-      <c r="K14" s="57" t="s">
-        <v>21</v>
       </c>
       <c r="L14" s="57"/>
       <c r="M14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="15.75">
@@ -1208,23 +1203,23 @@
       <c r="C15" s="35"/>
       <c r="D15" s="36"/>
       <c r="E15" s="63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="63"/>
       <c r="H15" s="64"/>
       <c r="I15" s="16">
-        <v>12.3</v>
+        <v>3</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="51">
-        <v>235</v>
+        <v>187000</v>
       </c>
       <c r="L15" s="51"/>
       <c r="M15" s="18">
-        <v>2890.5</v>
+        <v>561000</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="15.75">
@@ -1447,7 +1442,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
@@ -1467,13 +1462,13 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
       <c r="L31" s="42"/>
       <c r="M31" s="3" t="str">
-        <f>M30*10/100</f>
+        <f>M30*0/100</f>
         <v>0</v>
       </c>
     </row>
@@ -1487,7 +1482,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J32" s="41"/>
       <c r="K32" s="41"/>
@@ -1506,7 +1501,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
@@ -1672,7 +1667,7 @@
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="12.75">
       <c r="A45" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -1685,13 +1680,13 @@
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
       <c r="L45" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M45" s="26"/>
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="12.75">
       <c r="A46" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -1713,7 +1708,7 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="14.25">
       <c r="L50" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:14">

--- a/hasil/quotation.xlsx
+++ b/hasil/quotation.xlsx
@@ -181,6 +181,15 @@
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
       <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
@@ -192,15 +201,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -484,6 +484,9 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -535,7 +538,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -565,13 +568,13 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -585,9 +588,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,15 +632,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2571750" cy="466725"/>
+    <xdr:ext cx="3371850" cy="552450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 4" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -956,7 +956,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -977,27 +977,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
@@ -1005,14 +1004,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" customHeight="1" ht="12">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -1020,14 +1019,14 @@
       <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="18">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1035,28 +1034,28 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="17.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="5.25"/>
     <row r="8" spans="1:14">
       <c r="A8" s="10"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
@@ -1079,11 +1078,11 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="13"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
@@ -1099,20 +1098,20 @@
       <c r="K9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="53"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="13"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="9" t="s">
         <v>3</v>
       </c>
@@ -1124,10 +1123,10 @@
       <c r="K10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="13"/>
@@ -1164,272 +1163,272 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="10.5"/>
     <row r="14" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="57" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="57"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>1</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="63" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="16">
         <v>3</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="52">
         <v>187000</v>
       </c>
-      <c r="L15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="18">
         <v>561000</v>
       </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="19"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="17.25" s="4" customFormat="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
       <c r="I17" s="19"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="19"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="15.75">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:14" customHeight="1" ht="15.75">
@@ -1441,12 +1440,12 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
       <c r="M30" s="3" t="str">
         <f>SUM(M15:M29)</f>
         <v>0</v>
@@ -1461,12 +1460,12 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="43"/>
       <c r="M31" s="3" t="str">
         <f>M30*0/100</f>
         <v>0</v>
@@ -1481,12 +1480,12 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="43"/>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1500,170 +1499,170 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43"/>
       <c r="M33" s="24" t="str">
         <f>M30+M31-M32</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
     </row>
     <row r="35" spans="1:14" customHeight="1" ht="21">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="18.75">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
     </row>
     <row r="38" spans="1:14" customHeight="1" ht="21.75">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
     </row>
     <row r="39" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
     </row>
     <row r="40" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="12.75">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
     </row>
     <row r="44" spans="1:14" customHeight="1" ht="7.5">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="12.75">
       <c r="A45" s="27" t="s">
@@ -1702,7 +1701,7 @@
       <c r="M46" s="26"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="L49" s="65" t="s">
+      <c r="L49" s="30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1712,19 +1711,19 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
       <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" customHeight="1" ht="9">
